--- a/predictions полгода до/Прогнозы_GP_Matern.xlsx
+++ b/predictions полгода до/Прогнозы_GP_Matern.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17626097.67686028</v>
+        <v>17356493.53607659</v>
       </c>
       <c r="C2" t="n">
-        <v>17444162.07782219</v>
+        <v>17073795.84652113</v>
       </c>
       <c r="D2" t="n">
-        <v>17230210.76304886</v>
+        <v>16757976.55655838</v>
       </c>
       <c r="E2" t="n">
-        <v>16986747.36912894</v>
+        <v>16412611.70056563</v>
       </c>
       <c r="F2" t="n">
-        <v>16716356.06491159</v>
+        <v>16041287.36344167</v>
       </c>
       <c r="G2" t="n">
-        <v>16421652.53608848</v>
+        <v>15647537.2153102</v>
       </c>
       <c r="H2" t="n">
-        <v>16105243.75574351</v>
+        <v>15234793.80627955</v>
       </c>
       <c r="I2" t="n">
-        <v>15769695.3433475</v>
+        <v>14806351.43818356</v>
       </c>
       <c r="J2" t="n">
-        <v>15417505.45764105</v>
+        <v>14365338.72900067</v>
       </c>
       <c r="K2" t="n">
-        <v>15051084.29606086</v>
+        <v>13914699.24692405</v>
       </c>
       <c r="L2" t="n">
-        <v>14672738.38646632</v>
+        <v>13457178.81927777</v>
       </c>
       <c r="M2" t="n">
-        <v>14284658.95739483</v>
+        <v>12995318.32057868</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5891358.753747117</v>
+        <v>5143147.602017947</v>
       </c>
       <c r="C3" t="n">
-        <v>5078349.408830733</v>
+        <v>4400662.376316982</v>
       </c>
       <c r="D3" t="n">
-        <v>4233556.507000577</v>
+        <v>3668356.144709161</v>
       </c>
       <c r="E3" t="n">
-        <v>3434184.182072259</v>
+        <v>2992070.754707001</v>
       </c>
       <c r="F3" t="n">
-        <v>2723765.006854217</v>
+        <v>2396249.054289924</v>
       </c>
       <c r="G3" t="n">
-        <v>2120195.644908002</v>
+        <v>1889561.667399351</v>
       </c>
       <c r="H3" t="n">
-        <v>1624511.447853692</v>
+        <v>1470381.191300681</v>
       </c>
       <c r="I3" t="n">
-        <v>1228074.023365741</v>
+        <v>1131160.057645804</v>
       </c>
       <c r="J3" t="n">
-        <v>917686.7037710678</v>
+        <v>861559.0477378981</v>
       </c>
       <c r="K3" t="n">
-        <v>678878.5821970482</v>
+        <v>650492.1466433068</v>
       </c>
       <c r="L3" t="n">
-        <v>497804.4024832734</v>
+        <v>487344.0115333696</v>
       </c>
       <c r="M3" t="n">
-        <v>362195.4847182379</v>
+        <v>362606.7025458261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2519084.977592</v>
+        <v>7106639.497381308</v>
       </c>
       <c r="C4" t="n">
-        <v>2244216.11871103</v>
+        <v>4085229.690592801</v>
       </c>
       <c r="D4" t="n">
-        <v>1906491.481081354</v>
+        <v>1972043.034529297</v>
       </c>
       <c r="E4" t="n">
-        <v>1558997.779829099</v>
+        <v>855832.3650728808</v>
       </c>
       <c r="F4" t="n">
-        <v>1236394.746076914</v>
+        <v>345967.0894623803</v>
       </c>
       <c r="G4" t="n">
-        <v>956456.3473106696</v>
+        <v>132964.9731164002</v>
       </c>
       <c r="H4" t="n">
-        <v>724893.578617539</v>
+        <v>49209.65427264299</v>
       </c>
       <c r="I4" t="n">
-        <v>540072.9616450018</v>
+        <v>17687.54753397291</v>
       </c>
       <c r="J4" t="n">
-        <v>396594.2457646108</v>
+        <v>6211.06205172836</v>
       </c>
       <c r="K4" t="n">
-        <v>287650.2308690175</v>
+        <v>2139.992525251551</v>
       </c>
       <c r="L4" t="n">
-        <v>206413.0759683585</v>
+        <v>725.7754664458088</v>
       </c>
       <c r="M4" t="n">
-        <v>146743.0860322162</v>
+        <v>242.8879076680738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10630727.86382753</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10630927.79548252</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10631125.01874032</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>10631319.53317547</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10631511.33836965</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10631700.43391172</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>10631886.81939764</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10632070.49443052</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10632251.45862053</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>10632429.71158496</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>10632605.25294815</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>10632778.08234151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4475394.939573117</v>
+        <v>1912853.586390682</v>
       </c>
       <c r="C6" t="n">
-        <v>4475394.939573133</v>
+        <v>1734694.378721698</v>
       </c>
       <c r="D6" t="n">
-        <v>4475394.939573124</v>
+        <v>1569145.771689503</v>
       </c>
       <c r="E6" t="n">
-        <v>4475394.939573128</v>
+        <v>1416024.089032973</v>
       </c>
       <c r="F6" t="n">
-        <v>4475394.939573128</v>
+        <v>1274991.643535888</v>
       </c>
       <c r="G6" t="n">
-        <v>4475394.939573128</v>
+        <v>1145593.651765401</v>
       </c>
       <c r="H6" t="n">
-        <v>4475394.939573132</v>
+        <v>1027289.92610346</v>
       </c>
       <c r="I6" t="n">
-        <v>4475394.939573132</v>
+        <v>919481.6599104227</v>
       </c>
       <c r="J6" t="n">
-        <v>4475394.939573128</v>
+        <v>821533.7178962997</v>
       </c>
       <c r="K6" t="n">
-        <v>4475394.939573128</v>
+        <v>732792.8912764811</v>
       </c>
       <c r="L6" t="n">
-        <v>4475394.939573139</v>
+        <v>652602.5907132778</v>
       </c>
       <c r="M6" t="n">
-        <v>4475394.939573135</v>
+        <v>580314.4403702451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1715258.597608195</v>
+        <v>2094599.126506455</v>
       </c>
       <c r="C7" t="n">
-        <v>1715258.597608194</v>
+        <v>2094599.126506597</v>
       </c>
       <c r="D7" t="n">
-        <v>1715258.597608196</v>
+        <v>2094599.126506746</v>
       </c>
       <c r="E7" t="n">
-        <v>1715258.597608198</v>
+        <v>2094599.126506899</v>
       </c>
       <c r="F7" t="n">
-        <v>1715258.597608195</v>
+        <v>2094599.126507048</v>
       </c>
       <c r="G7" t="n">
-        <v>1715258.597608196</v>
+        <v>2094599.126507189</v>
       </c>
       <c r="H7" t="n">
-        <v>1715258.597608199</v>
+        <v>2094599.126507342</v>
       </c>
       <c r="I7" t="n">
-        <v>1715258.597608199</v>
+        <v>2094599.126507487</v>
       </c>
       <c r="J7" t="n">
-        <v>1715258.597608198</v>
+        <v>2094599.126507632</v>
       </c>
       <c r="K7" t="n">
-        <v>1715258.597608198</v>
+        <v>2094599.126507781</v>
       </c>
       <c r="L7" t="n">
-        <v>1715258.5976082</v>
+        <v>2094599.126507923</v>
       </c>
       <c r="M7" t="n">
-        <v>1715258.597608201</v>
+        <v>2094599.126508068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1073596.989793777</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="C8" t="n">
-        <v>1066814.12273451</v>
+        <v>15623164.60541648</v>
       </c>
       <c r="D8" t="n">
-        <v>1058750.099305805</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="E8" t="n">
-        <v>1049470.016796835</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="F8" t="n">
-        <v>1039042.986004813</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="G8" t="n">
-        <v>1027540.95564263</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="H8" t="n">
-        <v>1015037.692623275</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="I8" t="n">
-        <v>1001607.901887962</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="J8" t="n">
-        <v>987326.4709617938</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="K8" t="n">
-        <v>972267.825807051</v>
+        <v>15623164.60541647</v>
       </c>
       <c r="L8" t="n">
-        <v>956505.385810392</v>
+        <v>15623164.60541646</v>
       </c>
       <c r="M8" t="n">
-        <v>940111.1068962481</v>
+        <v>15623164.60541646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1762400.409815717</v>
+        <v>20440838.66335363</v>
       </c>
       <c r="C9" t="n">
-        <v>1093697.565571615</v>
+        <v>20445636.75635606</v>
       </c>
       <c r="D9" t="n">
-        <v>621384.9086642044</v>
+        <v>20429297.90937104</v>
       </c>
       <c r="E9" t="n">
-        <v>331895.4720768693</v>
+        <v>20392428.13327773</v>
       </c>
       <c r="F9" t="n">
-        <v>169423.8143719547</v>
+        <v>20335699.1521412</v>
       </c>
       <c r="G9" t="n">
-        <v>83553.55649959974</v>
+        <v>20259836.70812398</v>
       </c>
       <c r="H9" t="n">
-        <v>40103.79832104767</v>
+        <v>20165610.04885625</v>
       </c>
       <c r="I9" t="n">
-        <v>18833.31697962717</v>
+        <v>20053822.49955289</v>
       </c>
       <c r="J9" t="n">
-        <v>8687.12211236342</v>
+        <v>19925303.02940851</v>
       </c>
       <c r="K9" t="n">
-        <v>3947.385481704809</v>
+        <v>19780898.72854289</v>
       </c>
       <c r="L9" t="n">
-        <v>1770.990478069941</v>
+        <v>19621468.11804232</v>
       </c>
       <c r="M9" t="n">
-        <v>785.9168203289097</v>
+        <v>19447875.22147942</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3017914.492286583</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3017914.492286588</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3017914.492286592</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3017914.492286598</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3017914.492286602</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3017914.492286607</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3017914.492286613</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3017914.492286618</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3017914.492286622</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3017914.492286626</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3017914.492286632</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3017914.492286636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10823426.3927294</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10374765.68683813</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9813018.713566083</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9171048.8735769</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8479632.093529694</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7765571.437538972</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7050951.326319996</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6353086.181762687</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5684864.670171033</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5055293.372435096</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4470114.923353023</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3932424.403704947</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48015.66572262614</v>
+        <v>31395951.86415333</v>
       </c>
       <c r="C12" t="n">
-        <v>27819.60270837543</v>
+        <v>31400948.18277459</v>
       </c>
       <c r="D12" t="n">
-        <v>12660.93115433247</v>
+        <v>31404562.26113854</v>
       </c>
       <c r="E12" t="n">
-        <v>1473.828459936311</v>
+        <v>31406794.42745083</v>
       </c>
       <c r="F12" t="n">
-        <v>-6599.742895608011</v>
+        <v>31407645.51344752</v>
       </c>
       <c r="G12" t="n">
-        <v>-12248.60094593104</v>
+        <v>31407116.83927902</v>
       </c>
       <c r="H12" t="n">
-        <v>-16023.98302427138</v>
+        <v>31405210.1987121</v>
       </c>
       <c r="I12" t="n">
-        <v>-18365.47300037666</v>
+        <v>31401927.84464451</v>
       </c>
       <c r="J12" t="n">
-        <v>-19622.22274416679</v>
+        <v>31397272.47492614</v>
       </c>
       <c r="K12" t="n">
-        <v>-20070.29972957034</v>
+        <v>31391247.21848168</v>
       </c>
       <c r="L12" t="n">
-        <v>-19926.84845565847</v>
+        <v>31383855.62172901</v>
       </c>
       <c r="M12" t="n">
-        <v>-19361.63376165577</v>
+        <v>31375101.63528807</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>914185.3947157635</v>
+        <v>33916743.59922757</v>
       </c>
       <c r="C13" t="n">
-        <v>752950.3698549134</v>
+        <v>33913494.0468081</v>
       </c>
       <c r="D13" t="n">
-        <v>589633.0304987381</v>
+        <v>33909888.13397095</v>
       </c>
       <c r="E13" t="n">
-        <v>444144.5097729018</v>
+        <v>33905926.19240183</v>
       </c>
       <c r="F13" t="n">
-        <v>324487.4058213796</v>
+        <v>33901608.58233684</v>
       </c>
       <c r="G13" t="n">
-        <v>231321.3110330161</v>
+        <v>33896935.69211394</v>
       </c>
       <c r="H13" t="n">
-        <v>161626.809897614</v>
+        <v>33891907.93772945</v>
       </c>
       <c r="I13" t="n">
-        <v>111059.7042802228</v>
+        <v>33886525.76239902</v>
       </c>
       <c r="J13" t="n">
-        <v>75244.89087433473</v>
+        <v>33880789.6361236</v>
       </c>
       <c r="K13" t="n">
-        <v>50369.25364536046</v>
+        <v>33874700.05525985</v>
       </c>
       <c r="L13" t="n">
-        <v>33368.30518275722</v>
+        <v>33868257.54209526</v>
       </c>
       <c r="M13" t="n">
-        <v>21905.87669813819</v>
+        <v>33861462.64442791</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7123.951955360968</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4927.442192934303</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3265.861810760272</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2102.178298745243</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1324.58085992039</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>821.1641730073802</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>502.6001431277896</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>304.4536301044199</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.8561535319591</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>109.0389928500676</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>64.62473051591719</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>38.10001065904871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>491426.2188456931</v>
+        <v>3001021.392239696</v>
       </c>
       <c r="C15" t="n">
-        <v>451802.9812030767</v>
+        <v>2945153.302398519</v>
       </c>
       <c r="D15" t="n">
-        <v>406983.6002896128</v>
+        <v>2879207.497524308</v>
       </c>
       <c r="E15" t="n">
-        <v>360152.1244753575</v>
+        <v>2804516.132245931</v>
       </c>
       <c r="F15" t="n">
-        <v>313834.6217864755</v>
+        <v>2722414.952366674</v>
       </c>
       <c r="G15" t="n">
-        <v>269836.7667045517</v>
+        <v>2634206.829843475</v>
       </c>
       <c r="H15" t="n">
-        <v>229313.5634173013</v>
+        <v>2541135.465173962</v>
       </c>
       <c r="I15" t="n">
-        <v>192890.6800090954</v>
+        <v>2444367.216684359</v>
       </c>
       <c r="J15" t="n">
-        <v>160794.4499632546</v>
+        <v>2344979.36949984</v>
       </c>
       <c r="K15" t="n">
-        <v>132969.7409454774</v>
+        <v>2243953.454168289</v>
       </c>
       <c r="L15" t="n">
-        <v>109177.4688984386</v>
+        <v>2142172.474408635</v>
       </c>
       <c r="M15" t="n">
-        <v>89070.29993422255</v>
+        <v>2040421.112466184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638037.4665670829</v>
+        <v>8697663.350518882</v>
       </c>
       <c r="C16" t="n">
-        <v>563187.7497140768</v>
+        <v>8420483.247678217</v>
       </c>
       <c r="D16" t="n">
-        <v>479327.9386923356</v>
+        <v>8100818.412161464</v>
       </c>
       <c r="E16" t="n">
-        <v>396038.6452957895</v>
+        <v>7747532.08366926</v>
       </c>
       <c r="F16" t="n">
-        <v>319372.2598201134</v>
+        <v>7369245.211456767</v>
       </c>
       <c r="G16" t="n">
-        <v>252419.1424826297</v>
+        <v>6973998.940958665</v>
       </c>
       <c r="H16" t="n">
-        <v>196166.5272756463</v>
+        <v>6569054.203612039</v>
       </c>
       <c r="I16" t="n">
-        <v>150285.5093930286</v>
+        <v>6160790.491500719</v>
       </c>
       <c r="J16" t="n">
-        <v>113732.66827445</v>
+        <v>5754674.820314313</v>
       </c>
       <c r="K16" t="n">
-        <v>85161.71136145361</v>
+        <v>5355278.891716351</v>
       </c>
       <c r="L16" t="n">
-        <v>63179.81929293221</v>
+        <v>4966327.946161427</v>
       </c>
       <c r="M16" t="n">
-        <v>46491.02714379429</v>
+        <v>4590769.061311558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3840866.272404319</v>
+        <v>3865117.637677281</v>
       </c>
       <c r="C17" t="n">
-        <v>3015109.068831517</v>
+        <v>3794009.595061853</v>
       </c>
       <c r="D17" t="n">
-        <v>2229872.657666174</v>
+        <v>3712204.351438089</v>
       </c>
       <c r="E17" t="n">
-        <v>1576796.274517094</v>
+        <v>3621008.397073038</v>
       </c>
       <c r="F17" t="n">
-        <v>1077040.060683506</v>
+        <v>3521746.714858092</v>
       </c>
       <c r="G17" t="n">
-        <v>715793.198570272</v>
+        <v>3415726.751231603</v>
       </c>
       <c r="H17" t="n">
-        <v>465285.5463137541</v>
+        <v>3304211.548064834</v>
       </c>
       <c r="I17" t="n">
-        <v>296976.7516430136</v>
+        <v>3188400.326641865</v>
       </c>
       <c r="J17" t="n">
-        <v>186675.4354169109</v>
+        <v>3069415.091192131</v>
       </c>
       <c r="K17" t="n">
-        <v>115829.0696017089</v>
+        <v>2948292.054704168</v>
       </c>
       <c r="L17" t="n">
-        <v>71073.62575892269</v>
+        <v>2825976.889725729</v>
       </c>
       <c r="M17" t="n">
-        <v>43191.60078483882</v>
+        <v>2703322.976526557</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>925232.1164431935</v>
+        <v>2602790.332405702</v>
       </c>
       <c r="C18" t="n">
-        <v>925254.4899441199</v>
+        <v>2536264.612418033</v>
       </c>
       <c r="D18" t="n">
-        <v>925275.8358537785</v>
+        <v>2466680.266154231</v>
       </c>
       <c r="E18" t="n">
-        <v>925296.1540024999</v>
+        <v>2394345.23105777</v>
       </c>
       <c r="F18" t="n">
-        <v>925315.4442315792</v>
+        <v>2319633.611495205</v>
       </c>
       <c r="G18" t="n">
-        <v>925333.706393228</v>
+        <v>2242959.622769643</v>
       </c>
       <c r="H18" t="n">
-        <v>925350.9403505196</v>
+        <v>2164757.061631084</v>
       </c>
       <c r="I18" t="n">
-        <v>925367.1459773413</v>
+        <v>2085463.360582152</v>
       </c>
       <c r="J18" t="n">
-        <v>925382.3231583382</v>
+        <v>2005507.426375828</v>
       </c>
       <c r="K18" t="n">
-        <v>925396.4717888655</v>
+        <v>1925300.586022345</v>
       </c>
       <c r="L18" t="n">
-        <v>925409.5917749382</v>
+        <v>1845230.069068662</v>
       </c>
       <c r="M18" t="n">
-        <v>925421.6830331734</v>
+        <v>1765654.545240525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7723.08090139112</v>
+        <v>4805748.90224554</v>
       </c>
       <c r="C19" t="n">
-        <v>3357.786620593404</v>
+        <v>4805748.902245384</v>
       </c>
       <c r="D19" t="n">
-        <v>-478.7203745935985</v>
+        <v>4805748.902245216</v>
       </c>
       <c r="E19" t="n">
-        <v>-3820.444522899452</v>
+        <v>4805748.902245047</v>
       </c>
       <c r="F19" t="n">
-        <v>-6702.831647450832</v>
+        <v>4805748.902244871</v>
       </c>
       <c r="G19" t="n">
-        <v>-9161.830262569929</v>
+        <v>4805748.902244689</v>
       </c>
       <c r="H19" t="n">
-        <v>-11233.15878644599</v>
+        <v>4805748.9022445</v>
       </c>
       <c r="I19" t="n">
-        <v>-12951.74344773134</v>
+        <v>4805748.902244307</v>
       </c>
       <c r="J19" t="n">
-        <v>-14351.29701570774</v>
+        <v>4805748.902244109</v>
       </c>
       <c r="K19" t="n">
-        <v>-15464.0130715372</v>
+        <v>4805748.902243904</v>
       </c>
       <c r="L19" t="n">
-        <v>-16320.35447350517</v>
+        <v>4805748.902243694</v>
       </c>
       <c r="M19" t="n">
-        <v>-16948.91804022389</v>
+        <v>4805748.902243477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2224408.284085582</v>
+        <v>2793500.555309422</v>
       </c>
       <c r="C20" t="n">
-        <v>2224408.284085567</v>
+        <v>2793500.555602354</v>
       </c>
       <c r="D20" t="n">
-        <v>2224408.284085554</v>
+        <v>2793500.555886561</v>
       </c>
       <c r="E20" t="n">
-        <v>2224408.28408554</v>
+        <v>2793500.556162047</v>
       </c>
       <c r="F20" t="n">
-        <v>2224408.284085525</v>
+        <v>2793500.556428811</v>
       </c>
       <c r="G20" t="n">
-        <v>2224408.28408551</v>
+        <v>2793500.556686849</v>
       </c>
       <c r="H20" t="n">
-        <v>2224408.284085496</v>
+        <v>2793500.556936167</v>
       </c>
       <c r="I20" t="n">
-        <v>2224408.28408548</v>
+        <v>2793500.557176765</v>
       </c>
       <c r="J20" t="n">
-        <v>2224408.284085466</v>
+        <v>2793500.557408635</v>
       </c>
       <c r="K20" t="n">
-        <v>2224408.284085449</v>
+        <v>2793500.557631787</v>
       </c>
       <c r="L20" t="n">
-        <v>2224408.284085433</v>
+        <v>2793500.557846211</v>
       </c>
       <c r="M20" t="n">
-        <v>2224408.284085416</v>
+        <v>2793500.558051917</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>914508.4895465336</v>
+        <v>2684877.67371375</v>
       </c>
       <c r="C21" t="n">
-        <v>914508.4895465308</v>
+        <v>2684877.673713746</v>
       </c>
       <c r="D21" t="n">
-        <v>914508.4895465275</v>
+        <v>2684877.673713744</v>
       </c>
       <c r="E21" t="n">
-        <v>914508.4895465245</v>
+        <v>2684877.67371374</v>
       </c>
       <c r="F21" t="n">
-        <v>914508.4895465212</v>
+        <v>2684877.673713737</v>
       </c>
       <c r="G21" t="n">
-        <v>914508.4895465174</v>
+        <v>2684877.673713733</v>
       </c>
       <c r="H21" t="n">
-        <v>914508.4895465137</v>
+        <v>2684877.673713731</v>
       </c>
       <c r="I21" t="n">
-        <v>914508.4895465092</v>
+        <v>2684877.673713726</v>
       </c>
       <c r="J21" t="n">
-        <v>914508.4895465056</v>
+        <v>2684877.673713723</v>
       </c>
       <c r="K21" t="n">
-        <v>914508.489546501</v>
+        <v>2684877.673713719</v>
       </c>
       <c r="L21" t="n">
-        <v>914508.4895464965</v>
+        <v>2684877.673713713</v>
       </c>
       <c r="M21" t="n">
-        <v>914508.4895464915</v>
+        <v>2684877.673713709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>228355.8884642227</v>
+        <v>8751098.051432662</v>
       </c>
       <c r="C22" t="n">
-        <v>177957.3274375568</v>
+        <v>8778230.309078729</v>
       </c>
       <c r="D22" t="n">
-        <v>126151.5707457582</v>
+        <v>8803096.166736189</v>
       </c>
       <c r="E22" t="n">
-        <v>83648.59393263618</v>
+        <v>8825696.859569069</v>
       </c>
       <c r="F22" t="n">
-        <v>52819.28039025658</v>
+        <v>8846036.938965799</v>
       </c>
       <c r="G22" t="n">
-        <v>32138.38902370721</v>
+        <v>8864124.066098848</v>
       </c>
       <c r="H22" t="n">
-        <v>18996.29480858578</v>
+        <v>8879968.814528519</v>
       </c>
       <c r="I22" t="n">
-        <v>10970.45348946558</v>
+        <v>8893584.481512228</v>
       </c>
       <c r="J22" t="n">
-        <v>6216.166892562152</v>
+        <v>8904986.907692337</v>
       </c>
       <c r="K22" t="n">
-        <v>3466.913107013237</v>
+        <v>8914194.304846516</v>
       </c>
       <c r="L22" t="n">
-        <v>1907.872025347257</v>
+        <v>8921227.09139568</v>
       </c>
       <c r="M22" t="n">
-        <v>1037.954022926963</v>
+        <v>8926107.735374931</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6832059.784421452</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6832059.784421451</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6832059.784421455</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6832059.784421451</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>6832059.784421453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7875551.971794713</v>
+        <v>7607982.109678569</v>
       </c>
       <c r="C24" t="n">
-        <v>7875551.97179471</v>
+        <v>7586196.303642103</v>
       </c>
       <c r="D24" t="n">
-        <v>7875551.971794711</v>
+        <v>7555311.636011524</v>
       </c>
       <c r="E24" t="n">
-        <v>7875551.971794709</v>
+        <v>7515640.75732647</v>
       </c>
       <c r="F24" t="n">
-        <v>7875551.971794708</v>
+        <v>7467538.343329766</v>
       </c>
       <c r="G24" t="n">
-        <v>7875551.971794707</v>
+        <v>7411392.382209159</v>
       </c>
       <c r="H24" t="n">
-        <v>7875551.971794706</v>
+        <v>7347616.493927838</v>
       </c>
       <c r="I24" t="n">
-        <v>7875551.971794706</v>
+        <v>7276643.181720505</v>
       </c>
       <c r="J24" t="n">
-        <v>7875551.971794703</v>
+        <v>7198917.924506591</v>
       </c>
       <c r="K24" t="n">
-        <v>7875551.971794702</v>
+        <v>7114894.026944425</v>
       </c>
       <c r="L24" t="n">
-        <v>7875551.971794699</v>
+        <v>7025028.151173955</v>
       </c>
       <c r="M24" t="n">
-        <v>7875551.971794699</v>
+        <v>6929776.461021215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2542768.661928679</v>
+        <v>4746772.384967561</v>
       </c>
       <c r="C25" t="n">
-        <v>2542768.661941906</v>
+        <v>4740481.582317319</v>
       </c>
       <c r="D25" t="n">
-        <v>2542768.661954941</v>
+        <v>4733171.231558756</v>
       </c>
       <c r="E25" t="n">
-        <v>2542768.661967785</v>
+        <v>4724860.063937325</v>
       </c>
       <c r="F25" t="n">
-        <v>2542768.661980438</v>
+        <v>4715567.309050744</v>
       </c>
       <c r="G25" t="n">
-        <v>2542768.661992901</v>
+        <v>4705312.640735996</v>
       </c>
       <c r="H25" t="n">
-        <v>2542768.662005173</v>
+        <v>4694116.125731384</v>
       </c>
       <c r="I25" t="n">
-        <v>2542768.662017255</v>
+        <v>4681998.175000466</v>
       </c>
       <c r="J25" t="n">
-        <v>2542768.662029146</v>
+        <v>4668979.497608797</v>
       </c>
       <c r="K25" t="n">
-        <v>2542768.662040846</v>
+        <v>4655081.057048404</v>
       </c>
       <c r="L25" t="n">
-        <v>2542768.662052354</v>
+        <v>4640324.029908707</v>
       </c>
       <c r="M25" t="n">
-        <v>2542768.662063674</v>
+        <v>4624729.766796317</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7858646.729194828</v>
+        <v>7507996.856657825</v>
       </c>
       <c r="C26" t="n">
-        <v>7787431.896567369</v>
+        <v>7507996.85665784</v>
       </c>
       <c r="D26" t="n">
-        <v>7697754.995503496</v>
+        <v>7507996.856657845</v>
       </c>
       <c r="E26" t="n">
-        <v>7590656.417297242</v>
+        <v>7507996.856657846</v>
       </c>
       <c r="F26" t="n">
-        <v>7467391.386182474</v>
+        <v>7507996.856657851</v>
       </c>
       <c r="G26" t="n">
-        <v>7329360.558853617</v>
+        <v>7507996.856657853</v>
       </c>
       <c r="H26" t="n">
-        <v>7178053.345274317</v>
+        <v>7507996.856657855</v>
       </c>
       <c r="I26" t="n">
-        <v>7015002.04921798</v>
+        <v>7507996.856657865</v>
       </c>
       <c r="J26" t="n">
-        <v>6841745.181570008</v>
+        <v>7507996.856657863</v>
       </c>
       <c r="K26" t="n">
-        <v>6659798.522230105</v>
+        <v>7507996.856657865</v>
       </c>
       <c r="L26" t="n">
-        <v>6470632.701261237</v>
+        <v>7507996.85665787</v>
       </c>
       <c r="M26" t="n">
-        <v>6275656.240084093</v>
+        <v>7507996.856657875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10791016.74718657</v>
+        <v>3044619.58526722</v>
       </c>
       <c r="C27" t="n">
-        <v>10516338.20951416</v>
+        <v>3044619.600332927</v>
       </c>
       <c r="D27" t="n">
-        <v>10222911.94838663</v>
+        <v>3044619.615226222</v>
       </c>
       <c r="E27" t="n">
-        <v>9913787.981853895</v>
+        <v>3044619.629947106</v>
       </c>
       <c r="F27" t="n">
-        <v>9591940.80747395</v>
+        <v>3044619.644495579</v>
       </c>
       <c r="G27" t="n">
-        <v>9260219.067085609</v>
+        <v>3044619.658871646</v>
       </c>
       <c r="H27" t="n">
-        <v>8921309.551711099</v>
+        <v>3044619.673075298</v>
       </c>
       <c r="I27" t="n">
-        <v>8577712.827719366</v>
+        <v>3044619.687106537</v>
       </c>
       <c r="J27" t="n">
-        <v>8231728.201414933</v>
+        <v>3044619.700965369</v>
       </c>
       <c r="K27" t="n">
-        <v>7885446.111642493</v>
+        <v>3044619.714651791</v>
       </c>
       <c r="L27" t="n">
-        <v>7540746.357537106</v>
+        <v>3044619.728165802</v>
       </c>
       <c r="M27" t="n">
-        <v>7199300.838781963</v>
+        <v>3044619.741507404</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9508126.09467244</v>
+        <v>7714530.885083856</v>
       </c>
       <c r="C28" t="n">
-        <v>8957754.739804557</v>
+        <v>7714530.885083879</v>
       </c>
       <c r="D28" t="n">
-        <v>8042992.140026399</v>
+        <v>7714530.885083901</v>
       </c>
       <c r="E28" t="n">
-        <v>6956403.820530302</v>
+        <v>7714530.885083925</v>
       </c>
       <c r="F28" t="n">
-        <v>5840900.746516984</v>
+        <v>7714530.885083944</v>
       </c>
       <c r="G28" t="n">
-        <v>4788340.294908757</v>
+        <v>7714530.885083963</v>
       </c>
       <c r="H28" t="n">
-        <v>3849068.332700346</v>
+        <v>7714530.885083987</v>
       </c>
       <c r="I28" t="n">
-        <v>3043725.057679459</v>
+        <v>7714530.885084011</v>
       </c>
       <c r="J28" t="n">
-        <v>2373733.520738258</v>
+        <v>7714530.885084028</v>
       </c>
       <c r="K28" t="n">
-        <v>1829372.170090682</v>
+        <v>7714530.885084041</v>
       </c>
       <c r="L28" t="n">
-        <v>1395439.437445319</v>
+        <v>7714530.885084064</v>
       </c>
       <c r="M28" t="n">
-        <v>1054931.301451215</v>
+        <v>7714530.885084094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10101410.17030099</v>
+        <v>1814167.364687182</v>
       </c>
       <c r="C29" t="n">
-        <v>9464600.409426697</v>
+        <v>1731200.962327438</v>
       </c>
       <c r="D29" t="n">
-        <v>8687873.873133261</v>
+        <v>1626009.329607022</v>
       </c>
       <c r="E29" t="n">
-        <v>7832013.889277049</v>
+        <v>1505678.663250773</v>
       </c>
       <c r="F29" t="n">
-        <v>6949948.628693036</v>
+        <v>1376799.598812615</v>
       </c>
       <c r="G29" t="n">
-        <v>6083013.525768075</v>
+        <v>1244985.952484121</v>
       </c>
       <c r="H29" t="n">
-        <v>5260652.908750271</v>
+        <v>1114711.240633094</v>
       </c>
       <c r="I29" t="n">
-        <v>4501774.507508358</v>
+        <v>989327.5721105906</v>
       </c>
       <c r="J29" t="n">
-        <v>3816732.01155978</v>
+        <v>871180.046360857</v>
       </c>
       <c r="K29" t="n">
-        <v>3209380.216989193</v>
+        <v>761762.5278403747</v>
       </c>
       <c r="L29" t="n">
-        <v>2678929.355727545</v>
+        <v>661882.436269605</v>
       </c>
       <c r="M29" t="n">
-        <v>2221488.8693773</v>
+        <v>571816.4109237591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30520874.23157105</v>
+        <v>498853.1668283815</v>
       </c>
       <c r="C30" t="n">
-        <v>30520874.23157104</v>
+        <v>464590.6903643995</v>
       </c>
       <c r="D30" t="n">
-        <v>30520874.23157105</v>
+        <v>429874.4906761536</v>
       </c>
       <c r="E30" t="n">
-        <v>30520874.23157104</v>
+        <v>395372.4670667063</v>
       </c>
       <c r="F30" t="n">
-        <v>30520874.23157104</v>
+        <v>361635.4347916748</v>
       </c>
       <c r="G30" t="n">
-        <v>30520874.23157105</v>
+        <v>329098.137654789</v>
       </c>
       <c r="H30" t="n">
-        <v>30520874.23157104</v>
+        <v>298087.1882417979</v>
       </c>
       <c r="I30" t="n">
-        <v>30520874.23157104</v>
+        <v>268832.7812431298</v>
       </c>
       <c r="J30" t="n">
-        <v>30520874.23157103</v>
+        <v>241482.0491475834</v>
       </c>
       <c r="K30" t="n">
-        <v>30520874.23157104</v>
+        <v>216112.6668356241</v>
       </c>
       <c r="L30" t="n">
-        <v>30520874.23157104</v>
+        <v>192745.8358872943</v>
       </c>
       <c r="M30" t="n">
-        <v>30520874.23157104</v>
+        <v>171358.1465012828</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33847157.29484581</v>
+        <v>522180.1533262142</v>
       </c>
       <c r="C31" t="n">
-        <v>33822867.76544414</v>
+        <v>522180.1533262168</v>
       </c>
       <c r="D31" t="n">
-        <v>33796600.81361847</v>
+        <v>522180.1533262197</v>
       </c>
       <c r="E31" t="n">
-        <v>33768367.80376372</v>
+        <v>522180.1533262223</v>
       </c>
       <c r="F31" t="n">
-        <v>33738180.76402849</v>
+        <v>522180.1533262248</v>
       </c>
       <c r="G31" t="n">
-        <v>33706052.35830902</v>
+        <v>522180.153326227</v>
       </c>
       <c r="H31" t="n">
-        <v>33671995.85898323</v>
+        <v>522180.1533262291</v>
       </c>
       <c r="I31" t="n">
-        <v>33636025.12036918</v>
+        <v>522180.1533262313</v>
       </c>
       <c r="J31" t="n">
-        <v>33598154.55289161</v>
+        <v>522180.1533262337</v>
       </c>
       <c r="K31" t="n">
-        <v>33558399.09794101</v>
+        <v>522180.1533262355</v>
       </c>
       <c r="L31" t="n">
-        <v>33516774.20341001</v>
+        <v>522180.1533262373</v>
       </c>
       <c r="M31" t="n">
-        <v>33473295.79989205</v>
+        <v>522180.1533262391</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1458580.996258517</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1424173.792862273</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1385828.048910806</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1344085.232713711</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1299504.587583807</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1252641.954561742</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1204034.322554996</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1154188.948693579</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1103576.095287117</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1052624.600385244</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1001719.641643306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>951202.1722839448</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3233118.492297235</v>
+        <v>1754822.417826741</v>
       </c>
       <c r="C33" t="n">
-        <v>3157553.353778037</v>
+        <v>1701900.383471088</v>
       </c>
       <c r="D33" t="n">
-        <v>3063250.794164924</v>
+        <v>1645157.095731542</v>
       </c>
       <c r="E33" t="n">
-        <v>2953277.185565303</v>
+        <v>1585260.43525964</v>
       </c>
       <c r="F33" t="n">
-        <v>2830776.40781335</v>
+        <v>1522889.887431959</v>
       </c>
       <c r="G33" t="n">
-        <v>2698799.968122716</v>
+        <v>1458710.640211718</v>
       </c>
       <c r="H33" t="n">
-        <v>2560196.763772743</v>
+        <v>1393355.289946995</v>
       </c>
       <c r="I33" t="n">
-        <v>2417547.024612317</v>
+        <v>1327411.522352159</v>
       </c>
       <c r="J33" t="n">
-        <v>2273128.454205925</v>
+        <v>1261414.438965985</v>
       </c>
       <c r="K33" t="n">
-        <v>2128905.349366873</v>
+        <v>1195842.450816644</v>
       </c>
       <c r="L33" t="n">
-        <v>1986533.658814085</v>
+        <v>1131115.869148269</v>
       </c>
       <c r="M33" t="n">
-        <v>1847376.657394872</v>
+        <v>1067597.494893976</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8147068.563728041</v>
+        <v>1940769.702177107</v>
       </c>
       <c r="C34" t="n">
-        <v>7673340.440666297</v>
+        <v>1941272.6171298</v>
       </c>
       <c r="D34" t="n">
-        <v>7159675.536190601</v>
+        <v>1941763.683521023</v>
       </c>
       <c r="E34" t="n">
-        <v>6623448.231403982</v>
+        <v>1942242.884292953</v>
       </c>
       <c r="F34" t="n">
-        <v>6079864.30283943</v>
+        <v>1942710.203175859</v>
       </c>
       <c r="G34" t="n">
-        <v>5541557.716718994</v>
+        <v>1943165.624680015</v>
       </c>
       <c r="H34" t="n">
-        <v>5018539.162523467</v>
+        <v>1943609.134087693</v>
       </c>
       <c r="I34" t="n">
-        <v>4518353.150511466</v>
+        <v>1944040.717445185</v>
       </c>
       <c r="J34" t="n">
-        <v>4046347.021327928</v>
+        <v>1944460.361554918</v>
       </c>
       <c r="K34" t="n">
-        <v>3605988.266751002</v>
+        <v>1944868.05396761</v>
       </c>
       <c r="L34" t="n">
-        <v>3199189.771216163</v>
+        <v>1945263.782974488</v>
       </c>
       <c r="M34" t="n">
-        <v>2826618.654041257</v>
+        <v>1945647.537599571</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3606962.437738053</v>
+        <v>1258233.220247889</v>
       </c>
       <c r="C35" t="n">
-        <v>3470571.218891549</v>
+        <v>1194545.540929486</v>
       </c>
       <c r="D35" t="n">
-        <v>3319046.527317202</v>
+        <v>1130133.108482037</v>
       </c>
       <c r="E35" t="n">
-        <v>3156043.57449263</v>
+        <v>1065655.665745111</v>
       </c>
       <c r="F35" t="n">
-        <v>2985083.632893945</v>
+        <v>1001704.85871788</v>
       </c>
       <c r="G35" t="n">
-        <v>2809414.155260374</v>
+        <v>938797.1452364963</v>
       </c>
       <c r="H35" t="n">
-        <v>2631929.241673337</v>
+        <v>877371.7282243047</v>
       </c>
       <c r="I35" t="n">
-        <v>2455133.084053326</v>
+        <v>817792.0265854163</v>
       </c>
       <c r="J35" t="n">
-        <v>2281133.249670748</v>
+        <v>760349.5427435524</v>
       </c>
       <c r="K35" t="n">
-        <v>2111653.959107683</v>
+        <v>705269.2604556936</v>
       </c>
       <c r="L35" t="n">
-        <v>1948062.065329911</v>
+        <v>652715.9234954561</v>
       </c>
       <c r="M35" t="n">
-        <v>1791400.405656461</v>
+        <v>602800.7162657371</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2405069.537785045</v>
+        <v>1034741.945215445</v>
       </c>
       <c r="C36" t="n">
-        <v>2323786.824621218</v>
+        <v>1034741.946032989</v>
       </c>
       <c r="D36" t="n">
-        <v>2241004.435951427</v>
+        <v>1034741.946840091</v>
       </c>
       <c r="E36" t="n">
-        <v>2157132.104450461</v>
+        <v>1034741.947636751</v>
       </c>
       <c r="F36" t="n">
-        <v>2072590.814197172</v>
+        <v>1034741.948422969</v>
       </c>
       <c r="G36" t="n">
-        <v>1987797.785864712</v>
+        <v>1034741.949198745</v>
       </c>
       <c r="H36" t="n">
-        <v>1903155.309856603</v>
+        <v>1034741.949964081</v>
       </c>
       <c r="I36" t="n">
-        <v>1819042.702476919</v>
+        <v>1034741.950718973</v>
       </c>
       <c r="J36" t="n">
-        <v>1735810.778312995</v>
+        <v>1034741.951463425</v>
       </c>
       <c r="K36" t="n">
-        <v>1653778.332460393</v>
+        <v>1034741.952197435</v>
       </c>
       <c r="L36" t="n">
-        <v>1573230.211517987</v>
+        <v>1034741.952921001</v>
       </c>
       <c r="M36" t="n">
-        <v>1494416.624575943</v>
+        <v>1034741.953634127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4885924.784963813</v>
+        <v>3224315.113096025</v>
       </c>
       <c r="C37" t="n">
-        <v>4885924.782091706</v>
+        <v>3224315.113096043</v>
       </c>
       <c r="D37" t="n">
-        <v>4885924.779134678</v>
+        <v>3224315.11309606</v>
       </c>
       <c r="E37" t="n">
-        <v>4885924.776092736</v>
+        <v>3224315.113096078</v>
       </c>
       <c r="F37" t="n">
-        <v>4885924.772965875</v>
+        <v>3224315.113096093</v>
       </c>
       <c r="G37" t="n">
-        <v>4885924.769754097</v>
+        <v>3224315.113096108</v>
       </c>
       <c r="H37" t="n">
-        <v>4885924.766457402</v>
+        <v>3224315.113096124</v>
       </c>
       <c r="I37" t="n">
-        <v>4885924.76307579</v>
+        <v>3224315.113096139</v>
       </c>
       <c r="J37" t="n">
-        <v>4885924.75960926</v>
+        <v>3224315.113096156</v>
       </c>
       <c r="K37" t="n">
-        <v>4885924.756057813</v>
+        <v>3224315.113096167</v>
       </c>
       <c r="L37" t="n">
-        <v>4885924.752421449</v>
+        <v>3224315.113096182</v>
       </c>
       <c r="M37" t="n">
-        <v>4885924.748700168</v>
+        <v>3224315.113096195</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2792546.512298128</v>
+        <v>3180878.901020401</v>
       </c>
       <c r="C38" t="n">
-        <v>2792546.512298133</v>
+        <v>3160273.033339551</v>
       </c>
       <c r="D38" t="n">
-        <v>2792546.512298137</v>
+        <v>3136574.924370313</v>
       </c>
       <c r="E38" t="n">
-        <v>2792546.512298141</v>
+        <v>3109922.854109593</v>
       </c>
       <c r="F38" t="n">
-        <v>2792546.512298143</v>
+        <v>3080465.542450476</v>
       </c>
       <c r="G38" t="n">
-        <v>2792546.512298149</v>
+        <v>3048359.581377176</v>
       </c>
       <c r="H38" t="n">
-        <v>2792546.512298153</v>
+        <v>3013767.179314227</v>
       </c>
       <c r="I38" t="n">
-        <v>2792546.512298155</v>
+        <v>2976854.187322163</v>
       </c>
       <c r="J38" t="n">
-        <v>2792546.512298159</v>
+        <v>2937788.379448874</v>
       </c>
       <c r="K38" t="n">
-        <v>2792546.512298167</v>
+        <v>2896737.961952918</v>
       </c>
       <c r="L38" t="n">
-        <v>2792546.512298165</v>
+        <v>2853870.288328042</v>
       </c>
       <c r="M38" t="n">
-        <v>2792546.512298171</v>
+        <v>2809350.759092134</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2651745.088230318</v>
+        <v>4030475.538011596</v>
       </c>
       <c r="C39" t="n">
-        <v>2651745.088230316</v>
+        <v>3957510.631707964</v>
       </c>
       <c r="D39" t="n">
-        <v>2651745.088230315</v>
+        <v>3874095.980874779</v>
       </c>
       <c r="E39" t="n">
-        <v>2651745.088230314</v>
+        <v>3781228.560467786</v>
       </c>
       <c r="F39" t="n">
-        <v>2651745.088230312</v>
+        <v>3680025.886851101</v>
       </c>
       <c r="G39" t="n">
-        <v>2651745.08823031</v>
+        <v>3571666.690279288</v>
       </c>
       <c r="H39" t="n">
-        <v>2651745.088230308</v>
+        <v>3457345.185515599</v>
       </c>
       <c r="I39" t="n">
-        <v>2651745.088230306</v>
+        <v>3338236.47445891</v>
       </c>
       <c r="J39" t="n">
-        <v>2651745.088230305</v>
+        <v>3215471.010980906</v>
       </c>
       <c r="K39" t="n">
-        <v>2651745.088230303</v>
+        <v>3090116.395424607</v>
       </c>
       <c r="L39" t="n">
-        <v>2651745.0882303</v>
+        <v>2963165.052747983</v>
       </c>
       <c r="M39" t="n">
-        <v>2651745.088230298</v>
+        <v>2835526.591335716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9142590.933115423</v>
+        <v>4038787.32457651</v>
       </c>
       <c r="C40" t="n">
-        <v>9122558.050239949</v>
+        <v>4054347.801847743</v>
       </c>
       <c r="D40" t="n">
-        <v>9094608.503376609</v>
+        <v>4069545.397377932</v>
       </c>
       <c r="E40" t="n">
-        <v>9058939.233815631</v>
+        <v>4084377.133903157</v>
       </c>
       <c r="F40" t="n">
-        <v>9015779.420007421</v>
+        <v>4098840.304964916</v>
       </c>
       <c r="G40" t="n">
-        <v>8965385.159538191</v>
+        <v>4112932.466590116</v>
       </c>
       <c r="H40" t="n">
-        <v>8908034.682162087</v>
+        <v>4126651.429165706</v>
       </c>
       <c r="I40" t="n">
-        <v>8844024.050099395</v>
+        <v>4139995.24950389</v>
       </c>
       <c r="J40" t="n">
-        <v>8773663.305060167</v>
+        <v>4152962.223094049</v>
       </c>
       <c r="K40" t="n">
-        <v>8697273.024476973</v>
+        <v>4165550.876537583</v>
       </c>
       <c r="L40" t="n">
-        <v>8615181.252244478</v>
+        <v>4177759.960161843</v>
       </c>
       <c r="M40" t="n">
-        <v>8527720.771880727</v>
+        <v>4189588.44080951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6619958.49875761</v>
+        <v>2505302.093037318</v>
       </c>
       <c r="C41" t="n">
-        <v>6619958.498757543</v>
+        <v>2497154.520781878</v>
       </c>
       <c r="D41" t="n">
-        <v>6619958.498757472</v>
+        <v>2487159.447018561</v>
       </c>
       <c r="E41" t="n">
-        <v>6619958.498757395</v>
+        <v>2475371.507214922</v>
       </c>
       <c r="F41" t="n">
-        <v>6619958.498757319</v>
+        <v>2461850.710716635</v>
       </c>
       <c r="G41" t="n">
-        <v>6619958.498757236</v>
+        <v>2446661.513329387</v>
       </c>
       <c r="H41" t="n">
-        <v>6619958.49875715</v>
+        <v>2429871.979355577</v>
       </c>
       <c r="I41" t="n">
-        <v>6619958.498757058</v>
+        <v>2411553.026061981</v>
       </c>
       <c r="J41" t="n">
-        <v>6619958.498756966</v>
+        <v>2391777.744048302</v>
       </c>
       <c r="K41" t="n">
-        <v>6619958.498756872</v>
+        <v>2370620.787447992</v>
       </c>
       <c r="L41" t="n">
-        <v>6619958.49875677</v>
+        <v>2348157.828323745</v>
       </c>
       <c r="M41" t="n">
-        <v>6619958.498756666</v>
+        <v>2324465.070022712</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7433035.579903287</v>
+        <v>3191670.906259634</v>
       </c>
       <c r="C42" t="n">
-        <v>7407881.15814733</v>
+        <v>3198495.067314229</v>
       </c>
       <c r="D42" t="n">
-        <v>7373168.223414682</v>
+        <v>3204896.012203809</v>
       </c>
       <c r="E42" t="n">
-        <v>7329238.912856158</v>
+        <v>3210873.190261414</v>
       </c>
       <c r="F42" t="n">
-        <v>7276485.207215392</v>
+        <v>3216426.421702202</v>
       </c>
       <c r="G42" t="n">
-        <v>7215338.157124234</v>
+        <v>3221555.881100851</v>
       </c>
       <c r="H42" t="n">
-        <v>7146258.447085243</v>
+        <v>3226262.081395688</v>
       </c>
       <c r="I42" t="n">
-        <v>7069728.161287943</v>
+        <v>3230545.858405055</v>
       </c>
       <c r="J42" t="n">
-        <v>6986243.627780158</v>
+        <v>3234408.355841898</v>
       </c>
       <c r="K42" t="n">
-        <v>6896309.228838591</v>
+        <v>3237851.010812878</v>
       </c>
       <c r="L42" t="n">
-        <v>6800432.075739201</v>
+        <v>3240875.539788661</v>
       </c>
       <c r="M42" t="n">
-        <v>6699117.455596305</v>
+        <v>3243483.925032341</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4142989.565953098</v>
+        <v>2529861.824413862</v>
       </c>
       <c r="C43" t="n">
-        <v>4063860.939387712</v>
+        <v>2529861.824413872</v>
       </c>
       <c r="D43" t="n">
-        <v>3982992.475719487</v>
+        <v>2529861.824413879</v>
       </c>
       <c r="E43" t="n">
-        <v>3900603.533513353</v>
+        <v>2529861.824413884</v>
       </c>
       <c r="F43" t="n">
-        <v>3816913.538447127</v>
+        <v>2529861.824413888</v>
       </c>
       <c r="G43" t="n">
-        <v>3732139.72707625</v>
+        <v>2529861.82441389</v>
       </c>
       <c r="H43" t="n">
-        <v>3646495.265721398</v>
+        <v>2529861.824413887</v>
       </c>
       <c r="I43" t="n">
-        <v>3560187.700146078</v>
+        <v>2529861.824413883</v>
       </c>
       <c r="J43" t="n">
-        <v>3473417.696186297</v>
+        <v>2529861.824413878</v>
       </c>
       <c r="K43" t="n">
-        <v>3386378.035572596</v>
+        <v>2529861.82441387</v>
       </c>
       <c r="L43" t="n">
-        <v>3299252.834882692</v>
+        <v>2529861.824413859</v>
       </c>
       <c r="M43" t="n">
-        <v>3212216.958914041</v>
+        <v>2529861.824413847</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7423569.691778433</v>
+        <v>4531521.844824989</v>
       </c>
       <c r="C44" t="n">
-        <v>7423569.691778434</v>
+        <v>4531522.312212877</v>
       </c>
       <c r="D44" t="n">
-        <v>7423569.691778434</v>
+        <v>4531522.754276693</v>
       </c>
       <c r="E44" t="n">
-        <v>7423569.691778435</v>
+        <v>4531523.171016419</v>
       </c>
       <c r="F44" t="n">
-        <v>7423569.691778437</v>
+        <v>4531523.562432038</v>
       </c>
       <c r="G44" t="n">
-        <v>7423569.691778435</v>
+        <v>4531523.928523526</v>
       </c>
       <c r="H44" t="n">
-        <v>7423569.691778433</v>
+        <v>4531524.269290866</v>
       </c>
       <c r="I44" t="n">
-        <v>7423569.691778434</v>
+        <v>4531524.584734042</v>
       </c>
       <c r="J44" t="n">
-        <v>7423569.691778436</v>
+        <v>4531524.874853039</v>
       </c>
       <c r="K44" t="n">
-        <v>7423569.691778439</v>
+        <v>4531525.139647841</v>
       </c>
       <c r="L44" t="n">
-        <v>7423569.69177844</v>
+        <v>4531525.379118435</v>
       </c>
       <c r="M44" t="n">
-        <v>7423569.691778438</v>
+        <v>4531525.593264814</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4287379.090749366</v>
+        <v>2267527.635736512</v>
       </c>
       <c r="C45" t="n">
-        <v>4213312.629302355</v>
+        <v>2267527.635736515</v>
       </c>
       <c r="D45" t="n">
-        <v>4118654.060699408</v>
+        <v>2267527.635736517</v>
       </c>
       <c r="E45" t="n">
-        <v>4006249.076227113</v>
+        <v>2267527.63573652</v>
       </c>
       <c r="F45" t="n">
-        <v>3878982.968084086</v>
+        <v>2267527.635736522</v>
       </c>
       <c r="G45" t="n">
-        <v>3739673.001882927</v>
+        <v>2267527.635736525</v>
       </c>
       <c r="H45" t="n">
-        <v>3590993.685965607</v>
+        <v>2267527.635736528</v>
       </c>
       <c r="I45" t="n">
-        <v>3435427.575042224</v>
+        <v>2267527.63573653</v>
       </c>
       <c r="J45" t="n">
-        <v>3275235.674007323</v>
+        <v>2267527.635736532</v>
       </c>
       <c r="K45" t="n">
-        <v>3112442.681462837</v>
+        <v>2267527.635736534</v>
       </c>
       <c r="L45" t="n">
-        <v>2948833.274397856</v>
+        <v>2267527.635736536</v>
       </c>
       <c r="M45" t="n">
-        <v>2785956.421614216</v>
+        <v>2267527.635736538</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7650924.72968562</v>
+        <v>2041915.006407062</v>
       </c>
       <c r="C46" t="n">
-        <v>7650924.729685624</v>
+        <v>2041915.006407061</v>
       </c>
       <c r="D46" t="n">
-        <v>7650924.729685629</v>
+        <v>2041915.006407059</v>
       </c>
       <c r="E46" t="n">
-        <v>7650924.729685628</v>
+        <v>2041915.006407057</v>
       </c>
       <c r="F46" t="n">
-        <v>7650924.729685633</v>
+        <v>2041915.006407055</v>
       </c>
       <c r="G46" t="n">
-        <v>7650924.729685646</v>
+        <v>2041915.006407053</v>
       </c>
       <c r="H46" t="n">
-        <v>7650924.729685643</v>
+        <v>2041915.00640705</v>
       </c>
       <c r="I46" t="n">
-        <v>7650924.729685654</v>
+        <v>2041915.006407047</v>
       </c>
       <c r="J46" t="n">
-        <v>7650924.729685646</v>
+        <v>2041915.006407044</v>
       </c>
       <c r="K46" t="n">
-        <v>7650924.72968566</v>
+        <v>2041915.006407042</v>
       </c>
       <c r="L46" t="n">
-        <v>7650924.729685668</v>
+        <v>2041915.006407039</v>
       </c>
       <c r="M46" t="n">
-        <v>7650924.729685668</v>
+        <v>2041915.006407036</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1606532.431596747</v>
+        <v>1464247.124232106</v>
       </c>
       <c r="C47" t="n">
-        <v>1538452.407392121</v>
+        <v>1313829.159304905</v>
       </c>
       <c r="D47" t="n">
-        <v>1455782.533420482</v>
+        <v>1159486.770982486</v>
       </c>
       <c r="E47" t="n">
-        <v>1362609.265387545</v>
+        <v>1008689.197650558</v>
       </c>
       <c r="F47" t="n">
-        <v>1262859.574140503</v>
+        <v>866618.0031631601</v>
       </c>
       <c r="G47" t="n">
-        <v>1160023.586043745</v>
+        <v>736478.6943907426</v>
       </c>
       <c r="H47" t="n">
-        <v>1057029.964871169</v>
+        <v>619909.3107219442</v>
       </c>
       <c r="I47" t="n">
-        <v>956216.9734432783</v>
+        <v>517385.3458957507</v>
       </c>
       <c r="J47" t="n">
-        <v>859360.2753853759</v>
+        <v>428574.2683021516</v>
       </c>
       <c r="K47" t="n">
-        <v>767731.4126827416</v>
+        <v>352623.3204555841</v>
       </c>
       <c r="L47" t="n">
-        <v>682169.9529136587</v>
+        <v>288380.4025353492</v>
       </c>
       <c r="M47" t="n">
-        <v>603158.5977360451</v>
+        <v>234555.5082842878</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>496868.4311410073</v>
+        <v>4098078.051161398</v>
       </c>
       <c r="C48" t="n">
-        <v>457943.9437699898</v>
+        <v>4074459.479375584</v>
       </c>
       <c r="D48" t="n">
-        <v>418860.5107605597</v>
+        <v>4041555.054074381</v>
       </c>
       <c r="E48" t="n">
-        <v>380475.4365712978</v>
+        <v>3999895.729210322</v>
       </c>
       <c r="F48" t="n">
-        <v>343449.6628955305</v>
+        <v>3950079.782787227</v>
       </c>
       <c r="G48" t="n">
-        <v>308266.3303140698</v>
+        <v>3892750.857955331</v>
       </c>
       <c r="H48" t="n">
-        <v>275254.4651022294</v>
+        <v>3828579.739605795</v>
       </c>
       <c r="I48" t="n">
-        <v>244614.1430810183</v>
+        <v>3758249.354622087</v>
       </c>
       <c r="J48" t="n">
-        <v>216440.8920340759</v>
+        <v>3682442.546512747</v>
       </c>
       <c r="K48" t="n">
-        <v>190748.0577958874</v>
+        <v>3601832.230598965</v>
       </c>
       <c r="L48" t="n">
-        <v>167486.5037541685</v>
+        <v>3517073.585031751</v>
       </c>
       <c r="M48" t="n">
-        <v>146561.4323937637</v>
+        <v>3428797.976357377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>526733.3952382229</v>
+        <v>509101.7060086842</v>
       </c>
       <c r="C49" t="n">
-        <v>526733.3952382354</v>
+        <v>500059.7008901369</v>
       </c>
       <c r="D49" t="n">
-        <v>526733.3952382479</v>
+        <v>488875.2733413659</v>
       </c>
       <c r="E49" t="n">
-        <v>526733.3952382598</v>
+        <v>475814.906376946</v>
       </c>
       <c r="F49" t="n">
-        <v>526733.3952382712</v>
+        <v>461159.260705614</v>
       </c>
       <c r="G49" t="n">
-        <v>526733.395238283</v>
+        <v>445190.0221406696</v>
       </c>
       <c r="H49" t="n">
-        <v>526733.3952382938</v>
+        <v>428180.4404256532</v>
       </c>
       <c r="I49" t="n">
-        <v>526733.3952383046</v>
+        <v>410388.7706269675</v>
       </c>
       <c r="J49" t="n">
-        <v>526733.3952383148</v>
+        <v>392053.9759369486</v>
       </c>
       <c r="K49" t="n">
-        <v>526733.3952383252</v>
+        <v>373393.1728979215</v>
       </c>
       <c r="L49" t="n">
-        <v>526733.3952383352</v>
+        <v>354600.4008785656</v>
       </c>
       <c r="M49" t="n">
-        <v>526733.3952383448</v>
+        <v>335846.3806294052</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1441377.511770932</v>
+        <v>2094932.479022339</v>
       </c>
       <c r="C50" t="n">
-        <v>1394000.440132734</v>
+        <v>2045786.94090868</v>
       </c>
       <c r="D50" t="n">
-        <v>1341579.136693333</v>
+        <v>1986091.546708619</v>
       </c>
       <c r="E50" t="n">
-        <v>1285136.169163753</v>
+        <v>1917547.182025316</v>
       </c>
       <c r="F50" t="n">
-        <v>1225681.330737818</v>
+        <v>1841878.208129373</v>
       </c>
       <c r="G50" t="n">
-        <v>1164172.055411526</v>
+        <v>1760753.874699717</v>
       </c>
       <c r="H50" t="n">
-        <v>1101488.223925404</v>
+        <v>1675736.377037008</v>
       </c>
       <c r="I50" t="n">
-        <v>1038417.703195884</v>
+        <v>1588248.96593996</v>
       </c>
       <c r="J50" t="n">
-        <v>975649.7572741841</v>
+        <v>1499558.9302422</v>
       </c>
       <c r="K50" t="n">
-        <v>913774.1050644137</v>
+        <v>1410771.406108648</v>
       </c>
       <c r="L50" t="n">
-        <v>853283.9088172098</v>
+        <v>1322830.875192848</v>
       </c>
       <c r="M50" t="n">
-        <v>794581.3820578128</v>
+        <v>1236527.938061143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1737307.42174763</v>
+        <v>2406228.190190555</v>
       </c>
       <c r="C51" t="n">
-        <v>1639239.860344803</v>
+        <v>2274209.715700702</v>
       </c>
       <c r="D51" t="n">
-        <v>1529051.209494715</v>
+        <v>2118298.200210822</v>
       </c>
       <c r="E51" t="n">
-        <v>1411301.945282907</v>
+        <v>1947744.901380687</v>
       </c>
       <c r="F51" t="n">
-        <v>1290183.109868327</v>
+        <v>1770584.789282703</v>
       </c>
       <c r="G51" t="n">
-        <v>1169259.661259867</v>
+        <v>1593347.209486903</v>
       </c>
       <c r="H51" t="n">
-        <v>1051381.798352702</v>
+        <v>1421036.317922529</v>
       </c>
       <c r="I51" t="n">
-        <v>938695.8873057973</v>
+        <v>1257258.043390218</v>
       </c>
       <c r="J51" t="n">
-        <v>832709.8290932376</v>
+        <v>1104415.619568654</v>
       </c>
       <c r="K51" t="n">
-        <v>734383.7906440179</v>
+        <v>963926.1403958687</v>
       </c>
       <c r="L51" t="n">
-        <v>644228.2273883453</v>
+        <v>836430.6860909316</v>
       </c>
       <c r="M51" t="n">
-        <v>562398.5418426384</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2073895.346053613</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2043307.961250219</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2010886.740901847</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1976766.087976974</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1941088.879367049</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1904003.390774957</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1865660.69322615</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1826212.464696579</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1785809.166323627</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1744598.538053967</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1702724.373440201</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1660325.537675369</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1054487.901225364</v>
-      </c>
-      <c r="C53" t="n">
-        <v>964352.291461111</v>
-      </c>
-      <c r="D53" t="n">
-        <v>876005.1794323928</v>
-      </c>
-      <c r="E53" t="n">
-        <v>790782.2026338243</v>
-      </c>
-      <c r="F53" t="n">
-        <v>709718.4766072243</v>
-      </c>
-      <c r="G53" t="n">
-        <v>633555.4309662464</v>
-      </c>
-      <c r="H53" t="n">
-        <v>562768.7025636614</v>
-      </c>
-      <c r="I53" t="n">
-        <v>497606.0785912286</v>
-      </c>
-      <c r="J53" t="n">
-        <v>438128.4966436739</v>
-      </c>
-      <c r="K53" t="n">
-        <v>384249.8685699329</v>
-      </c>
-      <c r="L53" t="n">
-        <v>335773.358961954</v>
-      </c>
-      <c r="M53" t="n">
-        <v>292422.9793539657</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1024536.73488264</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1024536.734882664</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1024536.734882689</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1024536.734882714</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1024536.734882738</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1024536.734882761</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1024536.734882784</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1024536.734882807</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1024536.734882829</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1024536.734882852</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1024536.734882874</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1024536.734882896</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3432924.464178946</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3392576.9189594</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3349968.036575268</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3305262.498810336</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3258625.240735678</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3210220.280019343</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3160209.710294221</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3108752.842063427</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3056005.476056281</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3002119.295267544</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2947241.36312683</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2891513.716361681</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3151480.092868458</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3135820.691617193</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3117375.488389598</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3096253.979951154</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3072573.86243507</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3046459.230031412</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3018038.97414309</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2987445.365121961</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2954812.800119588</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2920276.701903564</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2883972.554708938</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2846035.064322209</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3888099.159049718</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3813467.558626508</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3729572.13695282</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3637301.880379587</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3537658.183939971</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3431700.800852483</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3320506.066975164</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3205135.19160602</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3086610.758268399</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2965899.879251242</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2843902.703014059</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2721445.190446308</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4398647.982509385</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4389361.568124353</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4376399.142910844</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4359859.691239278</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4339854.775568745</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4316506.428161344</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4289945.249452613</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4260308.696454526</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4227739.545768347</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4192384.516904466</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4154393.042650413</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4113916.17420136</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2430383.315101687</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2422683.250163242</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2413290.174190844</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2402250.708202348</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2389616.505565295</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2375443.427779514</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2359790.797454007</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2342720.722570567</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2324297.486531894</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2304586.998871287</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2283656.301856079</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2261573.128549044</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3303706.192037004</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3299643.914781532</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3294016.757453792</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3286852.846172545</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3278183.636314939</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3268043.513197792</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3256469.421754192</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3243500.52346653</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3229177.87891099</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3213544.15435757</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3196643.35095445</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3178520.555105687</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2499842.239134181</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2499842.239134182</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2499842.239134181</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2499842.239134181</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2499842.239134182</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2499842.239134183</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2499842.239134182</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2499842.239134182</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2499842.239134182</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2499842.239134182</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2499842.239134181</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2499842.23913418</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4727937.968255533</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4722454.456556882</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4716093.345924268</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4708864.364653734</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4700778.077243879</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4691845.820787748</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4682079.644335793</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4671492.251114991</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4660096.943493227</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4647907.570581936</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4634938.478373738</v>
-      </c>
-      <c r="M62" t="n">
-        <v>4621204.462315407</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2241688.932408554</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2241688.932408556</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2241688.93240856</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2241688.932408562</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2241688.932408565</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2241688.932408566</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2241688.932408567</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2241688.93240857</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2241688.932408572</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2241688.932408573</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2241688.932408575</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2241688.932408578</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2026297.755330509</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2026297.755330504</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2026297.755330499</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2026297.755330494</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2026297.755330488</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2026297.755330482</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2026297.755330476</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2026297.755330469</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2026297.755330463</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2026297.755330456</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2026297.755330449</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2026297.755330442</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1554828.712364929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1439352.196530864</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1311718.149238391</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1179059.41748887</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1047089.995974749</v>
-      </c>
-      <c r="G65" t="n">
-        <v>920057.3519114344</v>
-      </c>
-      <c r="H65" t="n">
-        <v>800876.8027932721</v>
-      </c>
-      <c r="I65" t="n">
-        <v>691344.4417942711</v>
-      </c>
-      <c r="J65" t="n">
-        <v>592368.8974453342</v>
-      </c>
-      <c r="K65" t="n">
-        <v>504189.8285334431</v>
-      </c>
-      <c r="L65" t="n">
-        <v>426568.0073531443</v>
-      </c>
-      <c r="M65" t="n">
-        <v>358941.8679717908</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4235412.844029459</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4197056.228754729</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4143792.56243993</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4076880.043716975</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3997698.447694199</v>
-      </c>
-      <c r="G66" t="n">
-        <v>3907688.410622569</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3808304.169884752</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3700977.407364974</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3587090.208481574</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3467955.461058803</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3344803.284920928</v>
-      </c>
-      <c r="M66" t="n">
-        <v>3218772.310812857</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>533048.8127004961</v>
-      </c>
-      <c r="C67" t="n">
-        <v>529985.9113238452</v>
-      </c>
-      <c r="D67" t="n">
-        <v>524935.3549814256</v>
-      </c>
-      <c r="E67" t="n">
-        <v>518027.1716867319</v>
-      </c>
-      <c r="F67" t="n">
-        <v>509417.732801321</v>
-      </c>
-      <c r="G67" t="n">
-        <v>499279.6553456634</v>
-      </c>
-      <c r="H67" t="n">
-        <v>487793.8430719044</v>
-      </c>
-      <c r="I67" t="n">
-        <v>475143.2981076504</v>
-      </c>
-      <c r="J67" t="n">
-        <v>461508.3917049061</v>
-      </c>
-      <c r="K67" t="n">
-        <v>447063.3312075924</v>
-      </c>
-      <c r="L67" t="n">
-        <v>431973.6018985348</v>
-      </c>
-      <c r="M67" t="n">
-        <v>416394.1978693845</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2049460.869768228</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2007379.763448633</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1954606.253187884</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1892699.423258947</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1823279.116441568</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1747941.83993227</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1668203.646587238</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1585463.504605325</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1500982.02937194</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1415871.548860895</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1331094.356814592</v>
-      </c>
-      <c r="M68" t="n">
-        <v>1247466.715528046</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2328705.011202646</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2210654.413423332</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2065417.379664534</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1902746.188236904</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1731284.411097845</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1558143.727774688</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1388823.713997136</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1227319.991981121</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1076323.225399339</v>
-      </c>
-      <c r="K69" t="n">
-        <v>937449.5731936755</v>
-      </c>
-      <c r="L69" t="n">
-        <v>811468.273620008</v>
-      </c>
-      <c r="M69" t="n">
-        <v>698508.1578013065</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>3601766.959540432</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3168501.903633714</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2598728.789310161</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2022355.845371616</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1511944.461590592</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1095451.374562682</v>
-      </c>
-      <c r="H70" t="n">
-        <v>774027.3803501368</v>
-      </c>
-      <c r="I70" t="n">
-        <v>535835.7555571484</v>
-      </c>
-      <c r="J70" t="n">
-        <v>364695.3910981273</v>
-      </c>
-      <c r="K70" t="n">
-        <v>244689.2283602642</v>
-      </c>
-      <c r="L70" t="n">
-        <v>162180.0349748682</v>
-      </c>
-      <c r="M70" t="n">
-        <v>106366.6064612443</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>10415873.52413835</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10415873.52413836</v>
-      </c>
-      <c r="D71" t="n">
-        <v>10415873.52413836</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10415873.52413835</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10415873.52413836</v>
-      </c>
-      <c r="G71" t="n">
-        <v>10415873.52413836</v>
-      </c>
-      <c r="H71" t="n">
-        <v>10415873.52413836</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10415873.52413835</v>
-      </c>
-      <c r="J71" t="n">
-        <v>10415873.52413837</v>
-      </c>
-      <c r="K71" t="n">
-        <v>10415873.52413836</v>
-      </c>
-      <c r="L71" t="n">
-        <v>10415873.52413836</v>
-      </c>
-      <c r="M71" t="n">
-        <v>10415873.52413835</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3449245.990272462</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3449245.995619353</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3449246.000903064</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3449246.006123594</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3449246.011280945</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3449246.016375117</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3449246.02140611</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3449246.02637392</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3449246.031278559</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3449246.036120015</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3449246.040898295</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3449246.045613389</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>5947140.171042444</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4944122.149560431</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3909854.969073744</v>
-      </c>
-      <c r="E73" t="n">
-        <v>2974417.564331991</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2194620.876033785</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1579893.726756983</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1114650.677295906</v>
-      </c>
-      <c r="I73" t="n">
-        <v>773319.905204064</v>
-      </c>
-      <c r="J73" t="n">
-        <v>528962.0868182428</v>
-      </c>
-      <c r="K73" t="n">
-        <v>357461.4949021707</v>
-      </c>
-      <c r="L73" t="n">
-        <v>239050.206192278</v>
-      </c>
-      <c r="M73" t="n">
-        <v>158410.9069075036</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="F74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="G74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15534442.61794426</v>
-      </c>
-      <c r="K74" t="n">
-        <v>15534442.61794427</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15534442.61794426</v>
-      </c>
-      <c r="M74" t="n">
-        <v>15534442.61794426</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>19309019.15802855</v>
-      </c>
-      <c r="C75" t="n">
-        <v>19135818.08681578</v>
-      </c>
-      <c r="D75" t="n">
-        <v>18932110.92495656</v>
-      </c>
-      <c r="E75" t="n">
-        <v>18699821.22972352</v>
-      </c>
-      <c r="F75" t="n">
-        <v>18441007.45492802</v>
-      </c>
-      <c r="G75" t="n">
-        <v>18157814.44524422</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17852432.65415842</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17527064.11663051</v>
-      </c>
-      <c r="J75" t="n">
-        <v>17183894.31516909</v>
-      </c>
-      <c r="K75" t="n">
-        <v>16825069.17455257</v>
-      </c>
-      <c r="L75" t="n">
-        <v>16452676.50695803</v>
-      </c>
-      <c r="M75" t="n">
-        <v>16068731.30677154</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>9508126.09467244</v>
-      </c>
-      <c r="C76" t="n">
-        <v>8957754.739804557</v>
-      </c>
-      <c r="D76" t="n">
-        <v>8042992.140026399</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6956403.820530302</v>
-      </c>
-      <c r="F76" t="n">
-        <v>5840900.746516984</v>
-      </c>
-      <c r="G76" t="n">
-        <v>4788340.294908757</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3849068.332700346</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3043725.057679459</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2373733.520738258</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1829372.170090682</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1395439.437445319</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1054931.301451215</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>10031558.29632393</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9388248.059541058</v>
-      </c>
-      <c r="D77" t="n">
-        <v>8607178.172547199</v>
-      </c>
-      <c r="E77" t="n">
-        <v>7749308.417678261</v>
-      </c>
-      <c r="F77" t="n">
-        <v>6867462.510419535</v>
-      </c>
-      <c r="G77" t="n">
-        <v>6002688.802640734</v>
-      </c>
-      <c r="H77" t="n">
-        <v>5184049.74584404</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4430043.705521103</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3750633.321116268</v>
-      </c>
-      <c r="K77" t="n">
-        <v>3149327.978952406</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2625051.297363408</v>
-      </c>
-      <c r="M77" t="n">
-        <v>2173688.115863748</v>
+        <v>721983.5677253926</v>
       </c>
     </row>
   </sheetData>
